--- a/Lab 2/FFT/lab2_FFT.xlsx
+++ b/Lab 2/FFT/lab2_FFT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cornell\Fall 2018\ECE 3400\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\ece-3400-group.github.io\Lab 2\FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5928,6 +5928,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Audio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> FFT diagram</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10279,38 +10309,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -36718,15 +36716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>447677</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37257,14 +37255,14 @@
       <selection activeCell="A6" activeCellId="2" sqref="A2:XFD2 A4:XFD4 A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>221</v>
       </c>
@@ -37653,12 +37651,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>217</v>
       </c>
@@ -38047,12 +38045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>207</v>
       </c>
@@ -38452,13 +38450,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38466,7 +38464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>212</v>
       </c>
@@ -38855,12 +38853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>212</v>
       </c>
@@ -39249,12 +39247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>212</v>
       </c>
@@ -39643,12 +39641,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>212</v>
       </c>
@@ -40037,12 +40035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>212</v>
       </c>
@@ -40431,12 +40429,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>212</v>
       </c>
@@ -40825,12 +40823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>212</v>
       </c>
@@ -41219,12 +41217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:129">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:129">
       <c r="A16">
         <v>212</v>
       </c>
@@ -41613,12 +41611,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:129">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:129">
       <c r="A18">
         <v>212</v>
       </c>
@@ -42007,12 +42005,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:129">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:129">
       <c r="A20">
         <v>212</v>
       </c>
@@ -42416,9 +42414,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42432,7 +42430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>207</v>
       </c>
@@ -42821,12 +42819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>207</v>
       </c>
@@ -43215,12 +43213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>207</v>
       </c>
@@ -43609,12 +43607,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>207</v>
       </c>
@@ -44003,12 +44001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>207</v>
       </c>
@@ -44397,12 +44395,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>207</v>
       </c>
@@ -44791,12 +44789,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>207</v>
       </c>
@@ -45200,9 +45198,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -45216,7 +45214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>206</v>
       </c>
@@ -45605,12 +45603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>206</v>
       </c>
@@ -45999,12 +45997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>206</v>
       </c>
@@ -46393,12 +46391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>206</v>
       </c>
@@ -46787,12 +46785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>206</v>
       </c>
@@ -47181,12 +47179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>206</v>
       </c>
@@ -47575,12 +47573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>206</v>
       </c>
@@ -47980,13 +47978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="6" sqref="A2:XFD2 A4:XFD4 A6:XFD6 A8:XFD8 A10:XFD10 A12:XFD12 A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -48000,7 +47998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>206</v>
       </c>
@@ -48389,12 +48387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>206</v>
       </c>
@@ -48783,12 +48781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>206</v>
       </c>
@@ -49177,12 +49175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>206</v>
       </c>
@@ -49571,12 +49569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>206</v>
       </c>
@@ -49965,12 +49963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>206</v>
       </c>
@@ -50359,12 +50357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>206</v>
       </c>
@@ -50768,14 +50766,14 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>215</v>
       </c>
@@ -51164,12 +51162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>215</v>
       </c>
@@ -51558,12 +51556,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>215</v>
       </c>
@@ -51966,9 +51964,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -51976,7 +51974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>215</v>
       </c>
@@ -52365,12 +52363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>215</v>
       </c>
@@ -52759,12 +52757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>215</v>
       </c>
@@ -53153,12 +53151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>215</v>
       </c>
@@ -53547,12 +53545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>215</v>
       </c>
@@ -53941,12 +53939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>215</v>
       </c>
@@ -54335,12 +54333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>215</v>
       </c>
@@ -54729,12 +54727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:129">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:129">
       <c r="A16">
         <v>215</v>
       </c>
@@ -55123,12 +55121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:129">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:129">
       <c r="A18">
         <v>215</v>
       </c>
@@ -55517,12 +55515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:129">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:129">
       <c r="A20">
         <v>215</v>
       </c>
@@ -55911,12 +55909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:129">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:129">
       <c r="A22">
         <v>215</v>
       </c>
@@ -56305,12 +56303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:129">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:129">
       <c r="A24">
         <v>215</v>
       </c>
@@ -56699,12 +56697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:129">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:129">
       <c r="A26">
         <v>215</v>
       </c>
@@ -57093,12 +57091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:129">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:129">
       <c r="A28">
         <v>215</v>
       </c>
@@ -57502,9 +57500,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -57512,7 +57510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>215</v>
       </c>
@@ -57901,12 +57899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>215</v>
       </c>
@@ -58295,12 +58293,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>215</v>
       </c>
@@ -58689,12 +58687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>215</v>
       </c>
@@ -59083,12 +59081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>215</v>
       </c>
@@ -59477,12 +59475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>215</v>
       </c>
@@ -59871,12 +59869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14">
         <v>215</v>
       </c>
@@ -60265,12 +60263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:129">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:129">
       <c r="A16">
         <v>215</v>
       </c>
@@ -60659,12 +60657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:129">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:129">
       <c r="A18">
         <v>215</v>
       </c>
@@ -61053,12 +61051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:129">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:129">
       <c r="A20">
         <v>215</v>
       </c>
@@ -61462,9 +61460,9 @@
       <selection activeCell="A12" activeCellId="5" sqref="A2:XFD2 A4:XFD4 A6:XFD6 A8:XFD8 A10:XFD10 A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -61475,7 +61473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129">
       <c r="A2">
         <v>212</v>
       </c>
@@ -61864,12 +61862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4">
         <v>212</v>
       </c>
@@ -62258,12 +62256,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6">
         <v>212</v>
       </c>
@@ -62652,12 +62650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8">
         <v>212</v>
       </c>
@@ -63046,12 +63044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10">
         <v>212</v>
       </c>
@@ -63440,12 +63438,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12">
         <v>212</v>
       </c>
